--- a/formatos_hoja_de_calculo/EDUCACION BASICA - SEGUNDO Y TERCER GRADO FOCALIZADO.xlsx
+++ b/formatos_hoja_de_calculo/EDUCACION BASICA - SEGUNDO Y TERCER GRADO FOCALIZADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1020497-3D70-4392-A31E-4DAA5F522CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C8360A-DA10-4801-B613-541D97B8184F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,13 +619,47 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,13 +683,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -688,33 +715,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -991,51 +991,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="60"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="53"/>
       <c r="AR1" s="7" t="s">
         <v>12</v>
       </c>
@@ -1060,53 +1060,53 @@
       <c r="BK1" s="1"/>
     </row>
     <row r="2" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="58" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="75"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="48"/>
       <c r="AR2" s="7" t="s">
         <v>13</v>
       </c>
@@ -1131,53 +1131,53 @@
       <c r="BK2" s="1"/>
     </row>
     <row r="3" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="75"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="48"/>
       <c r="AR3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1202,53 +1202,53 @@
       <c r="BK3" s="1"/>
     </row>
     <row r="4" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="64" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="63"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="72"/>
       <c r="AR4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1273,40 +1273,40 @@
       <c r="BK4" s="1"/>
     </row>
     <row r="5" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="9"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="9"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="72" t="s">
+      <c r="V5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
@@ -1348,49 +1348,49 @@
       <c r="BK5" s="1"/>
     </row>
     <row r="6" spans="1:63" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="50"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="62"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
@@ -1413,13 +1413,13 @@
       <c r="BK6" s="1"/>
     </row>
     <row r="7" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="63" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14"/>
@@ -1484,9 +1484,9 @@
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="1:63" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -1549,9 +1549,9 @@
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -1612,9 +1612,9 @@
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -1674,7 +1674,7 @@
       <c r="BJ10" s="2"/>
       <c r="BK10" s="2"/>
     </row>
-    <row r="11" spans="1:63" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="28"/>
       <c r="C11" s="37"/>
@@ -1737,7 +1737,7 @@
       <c r="BJ11" s="32"/>
       <c r="BK11" s="32"/>
     </row>
-    <row r="12" spans="1:63" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="38"/>
@@ -1782,7 +1782,7 @@
       <c r="AP12" s="34"/>
       <c r="AQ12" s="34"/>
     </row>
-    <row r="13" spans="1:63" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="38"/>
@@ -1827,7 +1827,7 @@
       <c r="AP13" s="34"/>
       <c r="AQ13" s="34"/>
     </row>
-    <row r="14" spans="1:63" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="39"/>
@@ -1872,7 +1872,7 @@
       <c r="AP14" s="24"/>
       <c r="AQ14" s="24"/>
     </row>
-    <row r="15" spans="1:63" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="39"/>
@@ -1917,7 +1917,7 @@
       <c r="AP15" s="24"/>
       <c r="AQ15" s="24"/>
     </row>
-    <row r="16" spans="1:63" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="40"/>
@@ -1962,7 +1962,7 @@
       <c r="AP16" s="34"/>
       <c r="AQ16" s="34"/>
     </row>
-    <row r="17" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="37"/>
@@ -2007,7 +2007,7 @@
       <c r="AP17" s="34"/>
       <c r="AQ17" s="34"/>
     </row>
-    <row r="18" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="37"/>
@@ -2052,7 +2052,7 @@
       <c r="AP18" s="34"/>
       <c r="AQ18" s="34"/>
     </row>
-    <row r="19" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="37"/>
@@ -2097,7 +2097,7 @@
       <c r="AP19" s="34"/>
       <c r="AQ19" s="34"/>
     </row>
-    <row r="20" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="37"/>
@@ -2142,7 +2142,7 @@
       <c r="AP20" s="34"/>
       <c r="AQ20" s="34"/>
     </row>
-    <row r="21" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="39"/>
@@ -2187,7 +2187,7 @@
       <c r="AP21" s="24"/>
       <c r="AQ21" s="24"/>
     </row>
-    <row r="22" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="39"/>
@@ -2232,7 +2232,7 @@
       <c r="AP22" s="24"/>
       <c r="AQ22" s="24"/>
     </row>
-    <row r="23" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="37"/>
@@ -2277,7 +2277,7 @@
       <c r="AP23" s="34"/>
       <c r="AQ23" s="34"/>
     </row>
-    <row r="24" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="37"/>
@@ -2322,7 +2322,7 @@
       <c r="AP24" s="34"/>
       <c r="AQ24" s="34"/>
     </row>
-    <row r="25" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="39"/>
@@ -2367,7 +2367,7 @@
       <c r="AP25" s="24"/>
       <c r="AQ25" s="24"/>
     </row>
-    <row r="26" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="41"/>
@@ -2412,7 +2412,7 @@
       <c r="AP26" s="24"/>
       <c r="AQ26" s="24"/>
     </row>
-    <row r="27" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="41"/>
@@ -2457,7 +2457,7 @@
       <c r="AP27" s="24"/>
       <c r="AQ27" s="24"/>
     </row>
-    <row r="28" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="42"/>
@@ -2502,7 +2502,7 @@
       <c r="AP28" s="34"/>
       <c r="AQ28" s="34"/>
     </row>
-    <row r="29" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="42"/>
@@ -2547,7 +2547,7 @@
       <c r="AP29" s="34"/>
       <c r="AQ29" s="34"/>
     </row>
-    <row r="30" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="41"/>
@@ -2592,7 +2592,7 @@
       <c r="AP30" s="24"/>
       <c r="AQ30" s="24"/>
     </row>
-    <row r="31" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="41"/>
@@ -2637,7 +2637,7 @@
       <c r="AP31" s="24"/>
       <c r="AQ31" s="24"/>
     </row>
-    <row r="32" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="41"/>
@@ -2682,7 +2682,7 @@
       <c r="AP32" s="24"/>
       <c r="AQ32" s="24"/>
     </row>
-    <row r="33" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="43"/>
@@ -2727,7 +2727,7 @@
       <c r="AP33" s="24"/>
       <c r="AQ33" s="24"/>
     </row>
-    <row r="34" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="26"/>
       <c r="C34" s="41"/>
@@ -2772,7 +2772,7 @@
       <c r="AP34" s="24"/>
       <c r="AQ34" s="24"/>
     </row>
-    <row r="35" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="28"/>
       <c r="C35" s="42"/>
@@ -2817,7 +2817,7 @@
       <c r="AP35" s="34"/>
       <c r="AQ35" s="34"/>
     </row>
-    <row r="36" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="44"/>
@@ -2862,7 +2862,7 @@
       <c r="AP36" s="34"/>
       <c r="AQ36" s="34"/>
     </row>
-    <row r="37" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="44"/>
@@ -2907,7 +2907,7 @@
       <c r="AP37" s="34"/>
       <c r="AQ37" s="34"/>
     </row>
-    <row r="38" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
       <c r="B38" s="26"/>
       <c r="C38" s="44"/>
@@ -2952,7 +2952,7 @@
       <c r="AP38" s="34"/>
       <c r="AQ38" s="34"/>
     </row>
-    <row r="39" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="26"/>
       <c r="C39" s="44"/>
@@ -2997,7 +2997,7 @@
       <c r="AP39" s="34"/>
       <c r="AQ39" s="34"/>
     </row>
-    <row r="40" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="41"/>
@@ -3042,7 +3042,7 @@
       <c r="AP40" s="24"/>
       <c r="AQ40" s="24"/>
     </row>
-    <row r="41" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="25"/>
       <c r="B41" s="26"/>
       <c r="C41" s="41"/>
@@ -3087,7 +3087,7 @@
       <c r="AP41" s="24"/>
       <c r="AQ41" s="24"/>
     </row>
-    <row r="42" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="41"/>
@@ -3132,7 +3132,7 @@
       <c r="AP42" s="24"/>
       <c r="AQ42" s="24"/>
     </row>
-    <row r="43" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25"/>
       <c r="B43" s="26"/>
       <c r="C43" s="41"/>
@@ -3177,7 +3177,7 @@
       <c r="AP43" s="24"/>
       <c r="AQ43" s="24"/>
     </row>
-    <row r="44" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="28"/>
       <c r="C44" s="42"/>
@@ -3222,7 +3222,7 @@
       <c r="AP44" s="34"/>
       <c r="AQ44" s="34"/>
     </row>
-    <row r="45" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="42"/>
@@ -3267,7 +3267,7 @@
       <c r="AP45" s="34"/>
       <c r="AQ45" s="34"/>
     </row>
-    <row r="46" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="42"/>
@@ -3312,7 +3312,7 @@
       <c r="AP46" s="34"/>
       <c r="AQ46" s="34"/>
     </row>
-    <row r="47" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="42"/>
@@ -3357,7 +3357,7 @@
       <c r="AP47" s="34"/>
       <c r="AQ47" s="34"/>
     </row>
-    <row r="48" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="42"/>
@@ -3402,7 +3402,7 @@
       <c r="AP48" s="34"/>
       <c r="AQ48" s="34"/>
     </row>
-    <row r="49" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="41"/>
@@ -3447,7 +3447,7 @@
       <c r="AP49" s="24"/>
       <c r="AQ49" s="24"/>
     </row>
-    <row r="50" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25"/>
       <c r="B50" s="26"/>
       <c r="C50" s="41"/>
@@ -3492,7 +3492,7 @@
       <c r="AP50" s="24"/>
       <c r="AQ50" s="24"/>
     </row>
-    <row r="51" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25"/>
       <c r="B51" s="26"/>
       <c r="C51" s="41"/>
@@ -3537,7 +3537,7 @@
       <c r="AP51" s="24"/>
       <c r="AQ51" s="24"/>
     </row>
-    <row r="52" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="42"/>
@@ -3582,7 +3582,7 @@
       <c r="AP52" s="34"/>
       <c r="AQ52" s="34"/>
     </row>
-    <row r="53" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="42"/>
@@ -3627,7 +3627,7 @@
       <c r="AP53" s="34"/>
       <c r="AQ53" s="34"/>
     </row>
-    <row r="54" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="25"/>
       <c r="B54" s="26"/>
       <c r="C54" s="42"/>
@@ -3672,7 +3672,7 @@
       <c r="AP54" s="34"/>
       <c r="AQ54" s="34"/>
     </row>
-    <row r="55" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="35"/>
       <c r="B55" s="22"/>
       <c r="C55" s="41"/>
@@ -3717,7 +3717,7 @@
       <c r="AP55" s="24"/>
       <c r="AQ55" s="24"/>
     </row>
-    <row r="56" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
       <c r="C56" s="44"/>
@@ -3762,7 +3762,7 @@
       <c r="AP56" s="34"/>
       <c r="AQ56" s="34"/>
     </row>
-    <row r="57" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="25"/>
       <c r="B57" s="26"/>
       <c r="C57" s="44"/>
@@ -3807,7 +3807,7 @@
       <c r="AP57" s="34"/>
       <c r="AQ57" s="34"/>
     </row>
-    <row r="58" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="25"/>
       <c r="B58" s="26"/>
       <c r="C58" s="44"/>
@@ -3852,7 +3852,7 @@
       <c r="AP58" s="34"/>
       <c r="AQ58" s="34"/>
     </row>
-    <row r="59" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="41"/>
@@ -3897,7 +3897,7 @@
       <c r="AP59" s="24"/>
       <c r="AQ59" s="24"/>
     </row>
-    <row r="60" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="25"/>
       <c r="B60" s="26"/>
       <c r="C60" s="39"/>
@@ -3942,7 +3942,7 @@
       <c r="AP60" s="24"/>
       <c r="AQ60" s="24"/>
     </row>
-    <row r="61" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="25"/>
       <c r="B61" s="26"/>
       <c r="C61" s="39"/>
@@ -3987,7 +3987,7 @@
       <c r="AP61" s="24"/>
       <c r="AQ61" s="24"/>
     </row>
-    <row r="62" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="28"/>
       <c r="C62" s="37"/>
@@ -4032,7 +4032,7 @@
       <c r="AP62" s="34"/>
       <c r="AQ62" s="34"/>
     </row>
-    <row r="63" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
       <c r="B63" s="26"/>
       <c r="C63" s="42"/>
@@ -4077,7 +4077,7 @@
       <c r="AP63" s="34"/>
       <c r="AQ63" s="34"/>
     </row>
-    <row r="64" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
       <c r="B64" s="26"/>
       <c r="C64" s="42"/>
@@ -4122,7 +4122,7 @@
       <c r="AP64" s="34"/>
       <c r="AQ64" s="34"/>
     </row>
-    <row r="65" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="41"/>
@@ -4167,7 +4167,7 @@
       <c r="AP65" s="24"/>
       <c r="AQ65" s="24"/>
     </row>
-    <row r="66" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25"/>
       <c r="B66" s="26"/>
       <c r="C66" s="41"/>
@@ -4212,7 +4212,7 @@
       <c r="AP66" s="24"/>
       <c r="AQ66" s="24"/>
     </row>
-    <row r="67" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="25"/>
       <c r="B67" s="26"/>
       <c r="C67" s="41"/>
@@ -4257,7 +4257,7 @@
       <c r="AP67" s="24"/>
       <c r="AQ67" s="24"/>
     </row>
-    <row r="68" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="28"/>
       <c r="C68" s="42"/>
@@ -4302,7 +4302,7 @@
       <c r="AP68" s="34"/>
       <c r="AQ68" s="34"/>
     </row>
-    <row r="69" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="25"/>
       <c r="B69" s="26"/>
       <c r="C69" s="42"/>
@@ -4347,7 +4347,7 @@
       <c r="AP69" s="34"/>
       <c r="AQ69" s="34"/>
     </row>
-    <row r="70" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="25"/>
       <c r="B70" s="26"/>
       <c r="C70" s="42"/>
@@ -4392,7 +4392,7 @@
       <c r="AP70" s="34"/>
       <c r="AQ70" s="34"/>
     </row>
-    <row r="71" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="41"/>
@@ -4437,7 +4437,7 @@
       <c r="AP71" s="24"/>
       <c r="AQ71" s="24"/>
     </row>
-    <row r="72" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="25"/>
       <c r="B72" s="26"/>
       <c r="C72" s="41"/>
@@ -4482,7 +4482,7 @@
       <c r="AP72" s="24"/>
       <c r="AQ72" s="24"/>
     </row>
-    <row r="73" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="28"/>
       <c r="C73" s="42"/>
@@ -4527,7 +4527,7 @@
       <c r="AP73" s="34"/>
       <c r="AQ73" s="34"/>
     </row>
-    <row r="74" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="25"/>
       <c r="B74" s="26"/>
       <c r="C74" s="42"/>
@@ -4572,7 +4572,7 @@
       <c r="AP74" s="34"/>
       <c r="AQ74" s="34"/>
     </row>
-    <row r="75" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="25"/>
       <c r="B75" s="26"/>
       <c r="C75" s="42"/>
@@ -4617,7 +4617,7 @@
       <c r="AP75" s="34"/>
       <c r="AQ75" s="34"/>
     </row>
-    <row r="76" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="41"/>
@@ -4662,7 +4662,7 @@
       <c r="AP76" s="24"/>
       <c r="AQ76" s="24"/>
     </row>
-    <row r="77" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="25"/>
       <c r="B77" s="26"/>
       <c r="C77" s="41"/>
@@ -4707,7 +4707,7 @@
       <c r="AP77" s="24"/>
       <c r="AQ77" s="24"/>
     </row>
-    <row r="78" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="25"/>
       <c r="B78" s="26"/>
       <c r="C78" s="41"/>
@@ -4752,7 +4752,7 @@
       <c r="AP78" s="24"/>
       <c r="AQ78" s="24"/>
     </row>
-    <row r="79" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="28"/>
       <c r="C79" s="42"/>
@@ -4797,7 +4797,7 @@
       <c r="AP79" s="34"/>
       <c r="AQ79" s="34"/>
     </row>
-    <row r="80" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="25"/>
       <c r="B80" s="26"/>
       <c r="C80" s="42"/>
@@ -4842,7 +4842,7 @@
       <c r="AP80" s="34"/>
       <c r="AQ80" s="34"/>
     </row>
-    <row r="81" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="41"/>
@@ -4887,7 +4887,7 @@
       <c r="AP81" s="24"/>
       <c r="AQ81" s="24"/>
     </row>
-    <row r="82" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="25"/>
       <c r="B82" s="26"/>
       <c r="C82" s="41"/>
@@ -4932,7 +4932,7 @@
       <c r="AP82" s="24"/>
       <c r="AQ82" s="24"/>
     </row>
-    <row r="83" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="25"/>
       <c r="B83" s="26"/>
       <c r="C83" s="41"/>
@@ -4977,7 +4977,7 @@
       <c r="AP83" s="24"/>
       <c r="AQ83" s="24"/>
     </row>
-    <row r="84" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="28"/>
       <c r="C84" s="42"/>
@@ -5022,7 +5022,7 @@
       <c r="AP84" s="34"/>
       <c r="AQ84" s="34"/>
     </row>
-    <row r="85" spans="1:43" s="31" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="25"/>
       <c r="B85" s="26"/>
       <c r="C85" s="42"/>
@@ -5067,7 +5067,7 @@
       <c r="AP85" s="34"/>
       <c r="AQ85" s="34"/>
     </row>
-    <row r="86" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="5"/>
       <c r="C86" s="45"/>
@@ -5112,7 +5112,7 @@
       <c r="AP86" s="18"/>
       <c r="AQ86" s="18"/>
     </row>
-    <row r="87" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="6"/>
       <c r="C87" s="45"/>
@@ -5157,7 +5157,7 @@
       <c r="AP87" s="18"/>
       <c r="AQ87" s="18"/>
     </row>
-    <row r="88" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="5"/>
       <c r="C88" s="45"/>
@@ -5202,7 +5202,7 @@
       <c r="AP88" s="18"/>
       <c r="AQ88" s="18"/>
     </row>
-    <row r="89" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="6"/>
       <c r="C89" s="45"/>
@@ -5247,7 +5247,7 @@
       <c r="AP89" s="18"/>
       <c r="AQ89" s="18"/>
     </row>
-    <row r="90" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="5"/>
       <c r="C90" s="45"/>
@@ -5292,7 +5292,7 @@
       <c r="AP90" s="18"/>
       <c r="AQ90" s="18"/>
     </row>
-    <row r="91" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="6"/>
       <c r="C91" s="45"/>
@@ -5337,7 +5337,7 @@
       <c r="AP91" s="18"/>
       <c r="AQ91" s="18"/>
     </row>
-    <row r="92" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="5"/>
       <c r="C92" s="45"/>
@@ -5382,7 +5382,7 @@
       <c r="AP92" s="18"/>
       <c r="AQ92" s="18"/>
     </row>
-    <row r="93" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="6"/>
       <c r="C93" s="45"/>
@@ -5427,7 +5427,7 @@
       <c r="AP93" s="18"/>
       <c r="AQ93" s="18"/>
     </row>
-    <row r="94" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="5"/>
       <c r="C94" s="45"/>
@@ -5472,7 +5472,7 @@
       <c r="AP94" s="18"/>
       <c r="AQ94" s="18"/>
     </row>
-    <row r="95" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="6"/>
       <c r="C95" s="45"/>
@@ -5517,7 +5517,7 @@
       <c r="AP95" s="18"/>
       <c r="AQ95" s="18"/>
     </row>
-    <row r="96" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="5"/>
       <c r="C96" s="45"/>
@@ -5562,7 +5562,7 @@
       <c r="AP96" s="18"/>
       <c r="AQ96" s="18"/>
     </row>
-    <row r="97" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="6"/>
       <c r="C97" s="45"/>
@@ -5607,7 +5607,7 @@
       <c r="AP97" s="18"/>
       <c r="AQ97" s="18"/>
     </row>
-    <row r="98" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="5"/>
       <c r="C98" s="45"/>
@@ -5652,7 +5652,7 @@
       <c r="AP98" s="18"/>
       <c r="AQ98" s="18"/>
     </row>
-    <row r="99" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="6"/>
       <c r="C99" s="45"/>
@@ -7009,15 +7009,6 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AQ3"/>
-    <mergeCell ref="A1:AQ1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AQ2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:X3"/>
     <mergeCell ref="A6:AQ6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
@@ -7031,6 +7022,15 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="O5:S5"/>
     <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AQ3"/>
+    <mergeCell ref="A1:AQ1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AQ2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:X3"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:AQ99">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
